--- a/01-trunk/07-management/摩尔石油需求表.xlsx
+++ b/01-trunk/07-management/摩尔石油需求表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enderson/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\svn\MaurerlabSupervision\01-trunk\07-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -2387,12 +2387,367 @@
     <t>在哪里修改，点击添加按钮后会回到那个界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>在开工报审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再加两行，入厂监理会议纪要、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进度计划表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并把这块设计成可以添加行的。原材料质量证明书和原材料复验报告从这块去掉，因为周四会议讨论的是在下面要添加原材料质量证明书审核记录和原材料复验报告审核记录，所有对应的质证书和复验报告在填写审核记录时上传。</t>
+    </r>
+  </si>
+  <si>
+    <t>可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本版实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>完工资料显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资料名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传人、审核人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在完工资料需要设计固定的文件长传区域，分别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品监造证明书、监造考勤、监理总结报告、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">派遣单编号型式改为如图所示。项目代号即业主单位代号，一个业主固定一个代号，具体如下，可添加新的业主单位及对应项目代号。项目代号只和派遣单编号关联。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>业主单位名称</t>
+  </si>
+  <si>
+    <t>项目代号</t>
+  </si>
+  <si>
+    <t>中石油青海油田分公司</t>
+  </si>
+  <si>
+    <t>中石油玉门油田分公司</t>
+  </si>
+  <si>
+    <t>中石油大庆油田分公司</t>
+  </si>
+  <si>
+    <t>中石油塔里木油田分公司</t>
+  </si>
+  <si>
+    <t>中石油长庆油田分公司</t>
+  </si>
+  <si>
+    <t>中石油长城钻探工程有限公司物资分公司</t>
+  </si>
+  <si>
+    <t>西南油气田物资分公司</t>
+  </si>
+  <si>
+    <t>陕西省天然气股份有限公司</t>
+  </si>
+  <si>
+    <t>江西省天然气（赣投气通）控股有限公司管道分公司</t>
+  </si>
+  <si>
+    <t>山西天然气有限公司</t>
+  </si>
+  <si>
+    <t>山西国新城市燃气有限公司</t>
+  </si>
+  <si>
+    <t>浙江天虹物资贸易有限公司</t>
+  </si>
+  <si>
+    <t>四川石油天然气建设工程有限责任公司</t>
+  </si>
+  <si>
+    <t>咸阳市天然气有限公司</t>
+  </si>
+  <si>
+    <t>中国石化物资装备华东有限公司</t>
+  </si>
+  <si>
+    <t>中国石油化工股份有限公司茂名分公司</t>
+  </si>
+  <si>
+    <t>中海油（天津）管道工程技术有限公司</t>
+  </si>
+  <si>
+    <t>岳阳中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>中国石油天然气管道局</t>
+  </si>
+  <si>
+    <t>衡阳华菱钢管有限公司</t>
+  </si>
+  <si>
+    <t>上海宝钢商贸有限公司</t>
+  </si>
+  <si>
+    <t>陕西延长石油（集团）管道运输公司</t>
+  </si>
+  <si>
+    <t>中国石油技术开发公司</t>
+  </si>
+  <si>
+    <t>大庆油田建设集团有限责任公司</t>
+  </si>
+  <si>
+    <t>中油管道物资装备总公司</t>
+  </si>
+  <si>
+    <t>巩义中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>大港油田集团工程建设有限责任公司</t>
+  </si>
+  <si>
+    <t>中油辽河工程有限公司</t>
+  </si>
+  <si>
+    <t>中海油能源发展股份有限公司</t>
+  </si>
+  <si>
+    <t>中国石油天然气第一建设公司</t>
+  </si>
+  <si>
+    <t>中石化胜利油建工程有限公司</t>
+  </si>
+  <si>
+    <t>辽河石油勘探局油田建设工程一公司</t>
+  </si>
+  <si>
+    <t>天津大港油田集团工程建设有限责任公司</t>
+  </si>
+  <si>
+    <t>江苏华菱锡钢特钢有限公司</t>
+  </si>
+  <si>
+    <t>连云港中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>成都天科石油天然气工程有限公司</t>
+  </si>
+  <si>
+    <t>太原燃气集团有限公司</t>
+  </si>
+  <si>
+    <t>中国石化西南油气分公司</t>
+  </si>
+  <si>
+    <t>辽河油田建设工程公司新疆分公司</t>
+  </si>
+  <si>
+    <t>合肥中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>泸州川玻科技有限公司</t>
+  </si>
+  <si>
+    <t>中石化国际事业北京有限公司</t>
+  </si>
+  <si>
+    <t>大港油田第二采油厂</t>
+  </si>
+  <si>
+    <t>兰陵中石油昆仑众德燃气有限公司</t>
+  </si>
+  <si>
+    <r>
+      <t>中石油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新疆油田分公司</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2472,6 +2827,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2487,7 +2869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2526,6 +2908,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2538,7 +2972,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2585,6 +3019,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2602,6 +3067,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2624,7 +3092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\}N3QO`Y5]@BHM2QM$G2Z]XQ.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\}N3QO`Y5]@BHM2QM$G2Z]XQ.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2663,12 +3137,18 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5363210</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1853565</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\Q992[@PO4HN35GVK~YAS5VO.png"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\Q992[@PO4HN35GVK~YAS5VO.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2712,7 +3192,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\J_`KIT(Z@DXC{Z_I[~)ER{Y.png"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\J_`KIT(Z@DXC{Z_I[~)ER{Y.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2756,7 +3242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\7VN{%4J)87QFBUY(VJ(}~53.png"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\7VN{%4J)87QFBUY(VJ(}~53.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2800,7 +3292,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\KK{9D}I57J814STX(4NE9~Q.png"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\KK{9D}I57J814STX(4NE9~Q.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2844,7 +3342,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\K155$@T0K3{RP4)9`PD[7N1.png"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\K155$@T0K3{RP4)9`PD[7N1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2888,7 +3392,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\A2JZBAVIG~X7$7IXU}4KM@T.png"/>
+        <xdr:cNvPr id="8" name="图片 7" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\A2JZBAVIG~X7$7IXU}4KM@T.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2932,7 +3442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\E1R0S{ZBZ}3(AR@~~8}TQZJ.png"/>
+        <xdr:cNvPr id="9" name="图片 8" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\E1R0S{ZBZ}3(AR@~~8}TQZJ.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2976,7 +3492,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\6~XCSL0UW2FT}APNKUL4}~H.png"/>
+        <xdr:cNvPr id="10" name="图片 9" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\6~XCSL0UW2FT}APNKUL4}~H.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3020,7 +3542,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\J34]EJLP1WH%I5H}J@TWYYY.png"/>
+        <xdr:cNvPr id="11" name="图片 10" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\J34]EJLP1WH%I5H}J@TWYYY.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3064,7 +3592,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3108,7 +3642,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\YJ1N]BRT1%MZE6VL_R2G]N0.png"/>
+        <xdr:cNvPr id="13" name="图片 12" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\YJ1N]BRT1%MZE6VL_R2G]N0.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3152,7 +3692,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\_Q[1M0A1[GJKFASPW5IVAU5.png"/>
+        <xdr:cNvPr id="14" name="图片 13" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\_Q[1M0A1[GJKFASPW5IVAU5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3196,7 +3742,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\[S$OT9V`O8H4YKG@Q8OPH%4.png"/>
+        <xdr:cNvPr id="15" name="图片 14" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\[S$OT9V`O8H4YKG@Q8OPH%4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3221,6 +3773,154 @@
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3633788</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1433513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 8" descr="C:\Users\Administrator\AppData\Roaming\Tencent\Users\1901464788\TIM\WinTemp\RichOle\F4BPLYFZL)HI0SY9_T_NRQR.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A86329-BB18-4C6D-B2E1-16F7AB9B05C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5462587" y="36440336"/>
+          <a:ext cx="3514726" cy="1378677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5229225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="7O}ESDC}S(V27F[2GYL@KAF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A884FD62-557B-448C-8435-5F6E944C66F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5343525" y="38609588"/>
+          <a:ext cx="5229225" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3491,23 +4191,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.17578125" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
-    <col min="5" max="5" width="45.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="45.46875" customWidth="1"/>
+    <col min="6" max="6" width="10.46875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3550,7 +4250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3567,7 +4267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3587,7 +4287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="29.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3607,7 +4307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3627,7 +4327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3647,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="98.65">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3667,7 +4367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3687,7 +4387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="78.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3704,7 +4404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="26.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3724,7 +4424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="115.05" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3744,7 +4444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="146" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3764,7 +4464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="306" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3784,7 +4484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="142.05000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3804,7 +4504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="161" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="161" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3824,7 +4524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="99" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3841,7 +4541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="246" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3861,7 +4561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="163.05000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3881,7 +4581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="222" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3901,7 +4601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="120" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3921,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3938,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3958,7 +4658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="163.05000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3975,7 +4675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="53" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -3995,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="31.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4015,7 +4715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="2" customFormat="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4032,7 +4732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="30">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4052,7 +4752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="159" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4072,7 +4772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="117" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4092,7 +4792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="45">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4112,7 +4812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="1" customFormat="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4132,7 +4832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="1" customFormat="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4152,156 +4852,706 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="132.4" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="27.75">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="63.4" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="26"/>
+      <c r="C38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="26"/>
+      <c r="C39" s="21">
+        <v>1</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="26"/>
+      <c r="C40" s="21">
+        <v>2</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="26"/>
+      <c r="C41" s="21">
+        <v>3</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="26"/>
+      <c r="C42" s="21">
+        <v>4</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="26"/>
+      <c r="C43" s="21">
+        <v>5</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="26"/>
+      <c r="C44" s="21">
+        <v>6</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="26"/>
+      <c r="C45" s="21">
+        <v>7</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="26"/>
+      <c r="C46" s="21">
+        <v>8</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="26"/>
+      <c r="C47" s="21">
+        <v>9</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="26"/>
+      <c r="C48" s="21">
+        <v>10</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="26"/>
+      <c r="C49" s="21">
+        <v>11</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="26"/>
+      <c r="C50" s="21">
+        <v>12</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="26"/>
+      <c r="C51" s="21">
+        <v>13</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="26"/>
+      <c r="C52" s="21">
+        <v>14</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="26"/>
+      <c r="C53" s="21">
+        <v>15</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="26"/>
+      <c r="C54" s="21">
+        <v>16</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="26"/>
+      <c r="C55" s="21">
+        <v>17</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="26"/>
+      <c r="C56" s="21">
+        <v>18</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="26"/>
+      <c r="C57" s="21">
+        <v>19</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="26"/>
+      <c r="C58" s="21">
+        <v>20</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="26"/>
+      <c r="C59" s="21">
+        <v>21</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="26"/>
+      <c r="C60" s="21">
+        <v>22</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="26"/>
+      <c r="C61" s="21">
+        <v>23</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="21">
+        <v>24</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.149999999999999" thickBot="1">
+      <c r="B63" s="26"/>
+      <c r="C63" s="21">
+        <v>25</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.149999999999999" thickBot="1">
+      <c r="B64" s="26"/>
+      <c r="C64" s="21">
+        <v>26</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B65" s="26"/>
+      <c r="C65" s="21">
+        <v>27</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B66" s="26"/>
+      <c r="C66" s="21">
+        <v>28</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B67" s="26"/>
+      <c r="C67" s="21">
+        <v>29</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B68" s="26"/>
+      <c r="C68" s="21">
+        <v>30</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B69" s="26"/>
+      <c r="C69" s="21">
+        <v>31</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B70" s="26"/>
+      <c r="C70" s="21">
+        <v>32</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B71" s="26"/>
+      <c r="C71" s="21">
+        <v>33</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B72" s="26"/>
+      <c r="C72" s="21">
+        <v>34</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B73" s="26"/>
+      <c r="C73" s="21">
+        <v>35</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B74" s="26"/>
+      <c r="C74" s="21">
+        <v>36</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B75" s="26"/>
+      <c r="C75" s="21">
+        <v>37</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B76" s="26"/>
+      <c r="C76" s="21">
+        <v>38</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B77" s="26"/>
+      <c r="C77" s="21">
+        <v>39</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B78" s="26"/>
+      <c r="C78" s="21">
+        <v>40</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B79" s="26"/>
+      <c r="C79" s="21">
+        <v>41</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B80" s="26"/>
+      <c r="C80" s="21">
+        <v>42</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B81" s="26"/>
+      <c r="C81" s="21">
+        <v>43</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" s="23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B82" s="26"/>
+      <c r="C82" s="21">
+        <v>44</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B83" s="26"/>
+      <c r="C83" s="21">
+        <v>45</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="16.149999999999999" thickBot="1">
+      <c r="B84" s="26"/>
+      <c r="C84" s="21">
+        <v>46</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="23">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="B37:B84"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37">
       <formula1>"需求,问题"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37">
@@ -4309,8 +5559,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4320,7 +5570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01-trunk/07-management/摩尔石油需求表.xlsx
+++ b/01-trunk/07-management/摩尔石油需求表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -2742,11 +2742,23 @@
       <t>新疆油田分公司</t>
     </r>
   </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -2972,7 +2984,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3049,6 +3061,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4190,11 +4205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B84"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
@@ -4207,7 +4222,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4229,8 +4244,14 @@
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="75">
+      <c r="H1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4250,7 +4271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="30">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4267,7 +4288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="30">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4287,7 +4308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="29.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="29.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4307,7 +4328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="30">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4327,7 +4348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4346,8 +4367,11 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="98.65">
+      <c r="H7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="98.65">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4366,8 +4390,11 @@
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="H8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4386,8 +4413,11 @@
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="78.75">
+      <c r="H9" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="78.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4404,7 +4434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="26.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="26.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4423,8 +4453,11 @@
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="115.05" customHeight="1">
+      <c r="H11" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="115.05" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4443,8 +4476,11 @@
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="146" customHeight="1">
+      <c r="H12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="146" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4464,7 +4500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="306" customHeight="1">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="306" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4484,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="142.05000000000001" customHeight="1">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="142.05000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4504,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="161" customHeight="1">
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="161" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5551,10 +5587,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"需求,问题"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"关闭,本版不实现,本版实现"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5565,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01-trunk/07-management/摩尔石油需求表.xlsx
+++ b/01-trunk/07-management/摩尔石油需求表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,6 +15,9 @@
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="问题" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$F$1:$F$84</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
   <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
@@ -396,70 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>人员编号：摩尔的使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MR1234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，甲方用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> QW1234，自动递增，离职人员和从系统中去掉的甲方人员编号保留。</t>
-    </r>
-    <rPh sb="28" eb="29">
-      <t>zi dong di zeng</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>li zhi ren yuan</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>he</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>cong</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xi tong zhong</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>qu diao</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>de</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>jia fang</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ren yuan</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>bian hao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>bao liu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 新增人员信息中，执业资格设置下拉选项菜单 单选（助理设备监理师、专业设备监理师、注册设备监理师）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,752 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>新增人员信息中，专业资质设置下拉可多选包括：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> RT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SSPC(SSPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SSPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CWI(CWI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CWI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ASNT RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ASNT UT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>UT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ASNT MT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ASNT PT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅰ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅲ）、腐蚀检测工程师、一级监造师、二级建造师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并可添加其他证书名称</t>
-    </r>
-  </si>
-  <si>
     <t>可以添加。但是需要复选，因为一个人可能有多个资质。</t>
     <rPh sb="0" eb="1">
       <t>ke yi</t>
@@ -1260,9 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员动态，默认进入当前人员动态页面，显示默认查询的结果</t>
-  </si>
-  <si>
     <t>可以，避免用户再点击一次查询按钮。</t>
     <rPh sb="0" eb="1">
       <t>ke yi</t>
@@ -1505,30 +695,6 @@
       <t>wen ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>总监和项目经理添加后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>均出现了两行重复的显示，且无法变更，也删除不掉；</t>
-    </r>
   </si>
   <si>
     <t>确认此问题可以复现。当使用vpn时会出现，但是马上在本机localhost上操作时不会出现，怀疑为vpn的bug或者网络延时的影响，可能与软件本身的关系不大。如果是vpn的影响需要给出证据。本版解决此问题。</t>
@@ -2539,17 +1705,154 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>在完工资料需要设计固定的文件长传区域，分别为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+    <t xml:space="preserve">派遣单编号型式改为如图所示。项目代号即业主单位代号，一个业主固定一个代号，具体如下，可添加新的业主单位及对应项目代号。项目代号只和派遣单编号关联。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>业主单位名称</t>
+  </si>
+  <si>
+    <t>项目代号</t>
+  </si>
+  <si>
+    <t>中石油青海油田分公司</t>
+  </si>
+  <si>
+    <t>中石油玉门油田分公司</t>
+  </si>
+  <si>
+    <t>中石油大庆油田分公司</t>
+  </si>
+  <si>
+    <t>中石油塔里木油田分公司</t>
+  </si>
+  <si>
+    <t>中石油长庆油田分公司</t>
+  </si>
+  <si>
+    <t>中石油长城钻探工程有限公司物资分公司</t>
+  </si>
+  <si>
+    <t>西南油气田物资分公司</t>
+  </si>
+  <si>
+    <t>陕西省天然气股份有限公司</t>
+  </si>
+  <si>
+    <t>江西省天然气（赣投气通）控股有限公司管道分公司</t>
+  </si>
+  <si>
+    <t>山西天然气有限公司</t>
+  </si>
+  <si>
+    <t>山西国新城市燃气有限公司</t>
+  </si>
+  <si>
+    <t>浙江天虹物资贸易有限公司</t>
+  </si>
+  <si>
+    <t>四川石油天然气建设工程有限责任公司</t>
+  </si>
+  <si>
+    <t>咸阳市天然气有限公司</t>
+  </si>
+  <si>
+    <t>中国石化物资装备华东有限公司</t>
+  </si>
+  <si>
+    <t>中国石油化工股份有限公司茂名分公司</t>
+  </si>
+  <si>
+    <t>中海油（天津）管道工程技术有限公司</t>
+  </si>
+  <si>
+    <t>岳阳中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>中国石油天然气管道局</t>
+  </si>
+  <si>
+    <t>衡阳华菱钢管有限公司</t>
+  </si>
+  <si>
+    <t>上海宝钢商贸有限公司</t>
+  </si>
+  <si>
+    <t>陕西延长石油（集团）管道运输公司</t>
+  </si>
+  <si>
+    <t>中国石油技术开发公司</t>
+  </si>
+  <si>
+    <t>大庆油田建设集团有限责任公司</t>
+  </si>
+  <si>
+    <t>中油管道物资装备总公司</t>
+  </si>
+  <si>
+    <t>巩义中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>大港油田集团工程建设有限责任公司</t>
+  </si>
+  <si>
+    <t>中油辽河工程有限公司</t>
+  </si>
+  <si>
+    <t>中海油能源发展股份有限公司</t>
+  </si>
+  <si>
+    <t>中国石油天然气第一建设公司</t>
+  </si>
+  <si>
+    <t>中石化胜利油建工程有限公司</t>
+  </si>
+  <si>
+    <t>辽河石油勘探局油田建设工程一公司</t>
+  </si>
+  <si>
+    <t>天津大港油田集团工程建设有限责任公司</t>
+  </si>
+  <si>
+    <t>江苏华菱锡钢特钢有限公司</t>
+  </si>
+  <si>
+    <t>连云港中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>成都天科石油天然气工程有限公司</t>
+  </si>
+  <si>
+    <t>太原燃气集团有限公司</t>
+  </si>
+  <si>
+    <t>中国石化西南油气分公司</t>
+  </si>
+  <si>
+    <t>辽河油田建设工程公司新疆分公司</t>
+  </si>
+  <si>
+    <t>合肥中石油昆仑燃气有限公司</t>
+  </si>
+  <si>
+    <t>泸州川玻科技有限公司</t>
+  </si>
+  <si>
+    <t>中石化国际事业北京有限公司</t>
+  </si>
+  <si>
+    <t>大港油田第二采油厂</t>
+  </si>
+  <si>
+    <t>兰陵中石油昆仑众德燃气有限公司</t>
+  </si>
+  <si>
+    <r>
+      <t>中石油</t>
     </r>
     <r>
       <rPr>
@@ -2559,191 +1862,879 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品监造证明书、监造考勤、监理总结报告、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t>新疆油田分公司</t>
+    </r>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人员编号：摩尔的使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MR1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>文件。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">派遣单编号型式改为如图所示。项目代号即业主单位代号，一个业主固定一个代号，具体如下，可添加新的业主单位及对应项目代号。项目代号只和派遣单编号关联。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>业主单位名称</t>
-  </si>
-  <si>
-    <t>项目代号</t>
-  </si>
-  <si>
-    <t>中石油青海油田分公司</t>
-  </si>
-  <si>
-    <t>中石油玉门油田分公司</t>
-  </si>
-  <si>
-    <t>中石油大庆油田分公司</t>
-  </si>
-  <si>
-    <t>中石油塔里木油田分公司</t>
-  </si>
-  <si>
-    <t>中石油长庆油田分公司</t>
-  </si>
-  <si>
-    <t>中石油长城钻探工程有限公司物资分公司</t>
-  </si>
-  <si>
-    <t>西南油气田物资分公司</t>
-  </si>
-  <si>
-    <t>陕西省天然气股份有限公司</t>
-  </si>
-  <si>
-    <t>江西省天然气（赣投气通）控股有限公司管道分公司</t>
-  </si>
-  <si>
-    <t>山西天然气有限公司</t>
-  </si>
-  <si>
-    <t>山西国新城市燃气有限公司</t>
-  </si>
-  <si>
-    <t>浙江天虹物资贸易有限公司</t>
-  </si>
-  <si>
-    <t>四川石油天然气建设工程有限责任公司</t>
-  </si>
-  <si>
-    <t>咸阳市天然气有限公司</t>
-  </si>
-  <si>
-    <t>中国石化物资装备华东有限公司</t>
-  </si>
-  <si>
-    <t>中国石油化工股份有限公司茂名分公司</t>
-  </si>
-  <si>
-    <t>中海油（天津）管道工程技术有限公司</t>
-  </si>
-  <si>
-    <t>岳阳中石油昆仑燃气有限公司</t>
-  </si>
-  <si>
-    <t>中国石油天然气管道局</t>
-  </si>
-  <si>
-    <t>衡阳华菱钢管有限公司</t>
-  </si>
-  <si>
-    <t>上海宝钢商贸有限公司</t>
-  </si>
-  <si>
-    <t>陕西延长石油（集团）管道运输公司</t>
-  </si>
-  <si>
-    <t>中国石油技术开发公司</t>
-  </si>
-  <si>
-    <t>大庆油田建设集团有限责任公司</t>
-  </si>
-  <si>
-    <t>中油管道物资装备总公司</t>
-  </si>
-  <si>
-    <t>巩义中石油昆仑燃气有限公司</t>
-  </si>
-  <si>
-    <t>大港油田集团工程建设有限责任公司</t>
-  </si>
-  <si>
-    <t>中油辽河工程有限公司</t>
-  </si>
-  <si>
-    <t>中海油能源发展股份有限公司</t>
-  </si>
-  <si>
-    <t>中国石油天然气第一建设公司</t>
-  </si>
-  <si>
-    <t>中石化胜利油建工程有限公司</t>
-  </si>
-  <si>
-    <t>辽河石油勘探局油田建设工程一公司</t>
-  </si>
-  <si>
-    <t>天津大港油田集团工程建设有限责任公司</t>
-  </si>
-  <si>
-    <t>江苏华菱锡钢特钢有限公司</t>
-  </si>
-  <si>
-    <t>连云港中石油昆仑燃气有限公司</t>
-  </si>
-  <si>
-    <t>成都天科石油天然气工程有限公司</t>
-  </si>
-  <si>
-    <t>太原燃气集团有限公司</t>
-  </si>
-  <si>
-    <t>中国石化西南油气分公司</t>
-  </si>
-  <si>
-    <t>辽河油田建设工程公司新疆分公司</t>
-  </si>
-  <si>
-    <t>合肥中石油昆仑燃气有限公司</t>
-  </si>
-  <si>
-    <t>泸州川玻科技有限公司</t>
-  </si>
-  <si>
-    <t>中石化国际事业北京有限公司</t>
-  </si>
-  <si>
-    <t>大港油田第二采油厂</t>
-  </si>
-  <si>
-    <t>兰陵中石油昆仑众德燃气有限公司</t>
-  </si>
-  <si>
-    <r>
-      <t>中石油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
+      <t>，甲方用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> QW1234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>新疆油田分公司</t>
-    </r>
-  </si>
-  <si>
-    <t>责任人</t>
+      <t>，自动递增，离职人员和从系统中去掉的甲方人员编号保留。</t>
+    </r>
+    <rPh sb="28" eb="29">
+      <t>zi dong di zeng</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>li zhi ren yuan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>he</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xi tong zhong</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>qu diao</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>de</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>jia fang</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ren yuan</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>bian hao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>bao liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增人员信息中，专业资质设置下拉可多选包括：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> RT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSPC(SSPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SSPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CWI(CWI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CWI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASNT RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ASNT UT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>UT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ASNT MT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ASNT PT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅰ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅲ）、腐蚀检测工程师、一级监造师、二级建造师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并可添加其他证书名称</t>
+    </r>
+  </si>
+  <si>
+    <t>人员动态，默认进入当前人员动态页面，显示默认查询的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总监和项目经理添加后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均出现了两行重复的显示，且无法变更，也删除不掉；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2751,7 +2742,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
+    <t>赵小顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周、赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王、胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘、胡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志超、周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在完工资料需要设计固定的文件长传区域，分别为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品监造证明书、监造考勤、监理总结报告、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2759,7 +2818,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2827,12 +2886,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2865,6 +2918,47 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2984,7 +3078,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3014,9 +3108,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3025,45 +3116,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3153,7 +3259,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>5363210</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>953</xdr:rowOff>
+      <xdr:rowOff>952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4208,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
@@ -4229,7 +4335,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -4244,11 +4350,11 @@
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>129</v>
+      <c r="H1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
@@ -4270,6 +4376,9 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="30">
       <c r="A3" s="3">
@@ -4295,8 +4404,8 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
+      <c r="C4" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -4308,18 +4417,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="29.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -4335,8 +4444,8 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
+      <c r="C6" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -4355,8 +4464,8 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+      <c r="C7" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -4368,7 +4477,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="98.65">
@@ -4378,11 +4487,11 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
+      <c r="C8" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
@@ -4391,7 +4500,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
@@ -4401,11 +4510,11 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
+      <c r="C9" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -4414,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="78.75">
@@ -4425,13 +4534,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="26.25">
@@ -4441,8 +4550,8 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
+      <c r="C11" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -4454,7 +4563,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="115.05" customHeight="1">
@@ -4462,13 +4571,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -4477,7 +4586,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="146" customHeight="1">
@@ -4485,13 +4594,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -4505,19 +4614,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="142.05000000000001" customHeight="1">
@@ -4525,13 +4637,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -4548,10 +4660,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -4559,36 +4671,39 @@
       <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="99" customHeight="1">
+      <c r="H16" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="99" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="246" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="246" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
@@ -4596,19 +4711,22 @@
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="163.05000000000001" customHeight="1">
+      <c r="H18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="163.05000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
+      <c r="C19" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>
@@ -4617,18 +4735,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="222" customHeight="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="222" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
+      <c r="C20" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
@@ -4637,18 +4755,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="120" customHeight="1">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="120" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
@@ -4656,36 +4774,39 @@
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="H21" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="30">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="30">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
+      <c r="C23" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -4694,35 +4815,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="163.05000000000001" customHeight="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="163.05000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="53" customHeight="1">
-      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="53" customHeight="1">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -4730,19 +4851,22 @@
       <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="31.5">
+      <c r="H25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="31.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -4750,8 +4874,11 @@
       <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1">
+      <c r="H26" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4759,16 +4886,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="30">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4776,10 +4903,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
@@ -4787,19 +4914,22 @@
       <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="159" customHeight="1">
+      <c r="H28" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="159" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
+      <c r="C29" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
@@ -4808,18 +4938,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="117" customHeight="1">
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="117" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
+      <c r="C30" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
@@ -4828,18 +4958,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="45">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="45">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>69</v>
+      <c r="C31" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
@@ -4848,7 +4978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1">
+    <row r="32" spans="1:8" s="1" customFormat="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4856,7 +4986,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
@@ -4867,16 +4997,19 @@
       <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1">
+      <c r="H32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>15</v>
@@ -4887,222 +5020,234 @@
       <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="132.4" customHeight="1">
+      <c r="H33" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="132.4" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>73</v>
+      <c r="C34" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="1" customFormat="1">
+      <c r="H34" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="27.75">
+      <c r="C35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="27.75">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="63.4" thickBot="1">
+      <c r="C36" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="63.4" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+      <c r="C37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="26"/>
-      <c r="C38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+      <c r="C38" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="26"/>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>1</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="23">
+      <c r="D39" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="26"/>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>2</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="23">
+      <c r="D40" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="26"/>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>3</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="23">
+      <c r="D41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="26"/>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>4</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="23">
+      <c r="D42" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="26"/>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>5</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="23">
+      <c r="D43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="44" spans="1:8" ht="16.149999999999999" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="26"/>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>6</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="23">
+      <c r="D44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="45" spans="1:8" ht="16.149999999999999" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="26"/>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>7</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="23">
+      <c r="D45" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="46" spans="1:8" ht="16.149999999999999" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="26"/>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>8</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="23">
+      <c r="D46" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="47" spans="1:8" ht="16.149999999999999" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="26"/>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>9</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="23">
+      <c r="D47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="48" spans="1:8" ht="16.149999999999999" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="26"/>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>10</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="23">
+      <c r="D48" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="22">
         <v>10</v>
       </c>
     </row>
@@ -5111,13 +5256,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="26"/>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>11</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="23">
+      <c r="D49" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="22">
         <v>11</v>
       </c>
     </row>
@@ -5126,13 +5271,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="26"/>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>12</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="23">
+      <c r="D50" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="22">
         <v>12</v>
       </c>
     </row>
@@ -5141,13 +5286,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="26"/>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>13</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="23">
+      <c r="D51" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="22">
         <v>13</v>
       </c>
     </row>
@@ -5156,13 +5301,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="26"/>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>14</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="23">
+      <c r="D52" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="22">
         <v>14</v>
       </c>
     </row>
@@ -5171,13 +5316,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="26"/>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>15</v>
       </c>
-      <c r="D53" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="23">
+      <c r="D53" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="22">
         <v>15</v>
       </c>
     </row>
@@ -5186,13 +5331,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="26"/>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>16</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="D54" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="22">
         <v>16</v>
       </c>
     </row>
@@ -5201,13 +5346,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="26"/>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>17</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="23">
+      <c r="D55" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="22">
         <v>17</v>
       </c>
     </row>
@@ -5216,13 +5361,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="26"/>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>18</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="23">
+      <c r="D56" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="22">
         <v>18</v>
       </c>
     </row>
@@ -5231,13 +5376,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="26"/>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>19</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="23">
+      <c r="D57" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="22">
         <v>19</v>
       </c>
     </row>
@@ -5246,13 +5391,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="26"/>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>20</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="23">
+      <c r="D58" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="22">
         <v>20</v>
       </c>
     </row>
@@ -5261,13 +5406,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="26"/>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>21</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="23">
+      <c r="D59" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="22">
         <v>21</v>
       </c>
     </row>
@@ -5276,13 +5421,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="26"/>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>22</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="23">
+      <c r="D60" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="22">
         <v>22</v>
       </c>
     </row>
@@ -5291,13 +5436,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="26"/>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>23</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="23">
+      <c r="D61" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="22">
         <v>23</v>
       </c>
     </row>
@@ -5306,281 +5451,282 @@
         <v>61</v>
       </c>
       <c r="B62" s="26"/>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>24</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="23">
+      <c r="D62" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="22">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="B63" s="26"/>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>25</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="23">
+      <c r="D63" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="22">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.149999999999999" thickBot="1">
       <c r="B64" s="26"/>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>26</v>
       </c>
-      <c r="D64" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="23">
+      <c r="D64" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="22">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B65" s="26"/>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>27</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="23">
+      <c r="D65" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="22">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B66" s="26"/>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>28</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="23">
+      <c r="D66" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="22">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B67" s="26"/>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>29</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="23">
+      <c r="D67" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="22">
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B68" s="26"/>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>30</v>
       </c>
-      <c r="D68" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="23">
+      <c r="D68" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="22">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B69" s="26"/>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>31</v>
       </c>
-      <c r="D69" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="23">
+      <c r="D69" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="22">
         <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B70" s="26"/>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>32</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="23">
+      <c r="D70" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="22">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B71" s="26"/>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>33</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E71" s="23">
+      <c r="D71" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" s="22">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B72" s="26"/>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>34</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="23">
+      <c r="D72" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="22">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B73" s="26"/>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>35</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="23">
+      <c r="D73" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="22">
         <v>35</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B74" s="26"/>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>36</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E74" s="23">
+      <c r="D74" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="22">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B75" s="26"/>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>37</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="23">
+      <c r="D75" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="22">
         <v>37</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B76" s="26"/>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>38</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="23">
+      <c r="D76" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="22">
         <v>38</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B77" s="26"/>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <v>39</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="23">
+      <c r="D77" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="22">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B78" s="26"/>
-      <c r="C78" s="21">
+      <c r="C78" s="20">
         <v>40</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="23">
+      <c r="D78" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="22">
         <v>40</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B79" s="26"/>
-      <c r="C79" s="21">
+      <c r="C79" s="20">
         <v>41</v>
       </c>
-      <c r="D79" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="23">
+      <c r="D79" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="22">
         <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B80" s="26"/>
-      <c r="C80" s="21">
+      <c r="C80" s="20">
         <v>42</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="23">
+      <c r="D80" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="22">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B81" s="26"/>
-      <c r="C81" s="21">
+      <c r="C81" s="20">
         <v>43</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" s="23">
+      <c r="D81" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="22">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B82" s="26"/>
-      <c r="C82" s="21">
+      <c r="C82" s="20">
         <v>44</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="23">
+      <c r="D82" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="22">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B83" s="26"/>
-      <c r="C83" s="21">
+      <c r="C83" s="20">
         <v>45</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="23">
+      <c r="D83" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="22">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B84" s="26"/>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <v>46</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="23">
+      <c r="D84" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="22">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F84" xr:uid="{4A7D876E-4CD3-44B5-8B0A-9FFEFA3FE4BE}"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="B37:B84"/>
